--- a/GoogleTest.xlsx
+++ b/GoogleTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="単体テスト" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="CMakeLists_txt" sheetId="5" r:id="rId5"/>
     <sheet name="ノウハウ" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="単体テスト (2)" sheetId="7" state="hidden" r:id="rId7"/>
+    <sheet name="テストフィクスチャ" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="241">
   <si>
     <t>GoogleTestのビルド方法は2つある。</t>
     <rPh sb="14" eb="16">
@@ -1093,6 +1094,301 @@
     </rPh>
     <rPh sb="38" eb="39">
       <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GogoleTestノダウンロード先</t>
+    <rPh sb="17" eb="18">
+      <t>サキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\192.168.56.101\share\Test2\googletest-release-1.8.1</t>
+  </si>
+  <si>
+    <t>buildフォルダを作成</t>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>\\192.168.56.101\share\Test2\googletest-release-1.8.1\build</t>
+  </si>
+  <si>
+    <t>media/sf_share/myapp/MyApp.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Linuxで以下のディレクトリ/ファイルを作成</t>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>media/sf_share/myapp/MyApp.hpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト対象ファイル</t>
+    <rPh sb="3" eb="5">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>media/sf_share/myapp/test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストコードディレクトリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>media/sf_share/myapp/test/CMakeLists.txt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">media/sf_share/myapp/test・MyAppTest.cpp </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">media/sf_share/myapp/test/build </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>media/sf_share/myapp/test/lib</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リンク設定</t>
+    <rPh sb="3" eb="5">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GoogleTestライブラリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>//テストフィクスチャの実装してみた</t>
+  </si>
+  <si>
+    <t>class SerializeTest : public testing::Test {</t>
+  </si>
+  <si>
+    <t>protected:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // member</t>
+  </si>
+  <si>
+    <t>int num;</t>
+  </si>
+  <si>
+    <t>int num2;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  // method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SerializeTest() {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ~SerializeTest() {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  virtual void SetUp() {</t>
+  </si>
+  <si>
+    <t>printf("start__________________\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    num  = 1;</t>
+  </si>
+  <si>
+    <t>num2 = 5;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  virtual void TearDown() {</t>
+  </si>
+  <si>
+    <t>printf("end____________________\n");</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  }</t>
+  </si>
+  <si>
+    <t>//EXPECT_EQ(expected, actual);</t>
+  </si>
+  <si>
+    <t>//expected == actual</t>
+  </si>
+  <si>
+    <t>//1 == 1 * num</t>
+  </si>
+  <si>
+    <t>TEST_F(SerializeTest, change_a_type) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXPECT_EQ(1, MyApp::multiply(1,num));</t>
+  </si>
+  <si>
+    <t>//EXPECT_NE(val1, val2)</t>
+  </si>
+  <si>
+    <t>//expected !=  actual</t>
+  </si>
+  <si>
+    <t>//1 != 2 * num</t>
+  </si>
+  <si>
+    <t>TEST_F(SerializeTest, change_b_type) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXPECT_NE(1, MyApp::multiply(2,num));</t>
+  </si>
+  <si>
+    <t>//EXPECT_LT(val1, val2);</t>
+  </si>
+  <si>
+    <t>//val1 &lt; val2</t>
+  </si>
+  <si>
+    <t>//1 &lt; 1 * num2</t>
+  </si>
+  <si>
+    <t>TEST_F(SerializeTest, change_c_type) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXPECT_LT(1, MyApp::multiply(1,num2));</t>
+  </si>
+  <si>
+    <t>//EXPECT_LE(val1, val2)</t>
+  </si>
+  <si>
+    <t>//val1 &lt;= val2</t>
+  </si>
+  <si>
+    <t>//1 &lt;= 5 * num2</t>
+  </si>
+  <si>
+    <t>TEST_F(SerializeTest, change_d_type) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXPECT_LE(5, MyApp::multiply(1,num2));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXPECT_LE(4, MyApp::multiply(1,num2));</t>
+  </si>
+  <si>
+    <t>//EXPECT_GT(val1, val2);</t>
+  </si>
+  <si>
+    <t>//val1 &gt; val2</t>
+  </si>
+  <si>
+    <t>//6 &gt; 1 * num2</t>
+  </si>
+  <si>
+    <t>TEST_F(SerializeTest, change_e_type) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXPECT_GT(6, MyApp::multiply(1,num2));</t>
+  </si>
+  <si>
+    <t>//EXPECT_GE(val1, val2);</t>
+  </si>
+  <si>
+    <t>//val1 &gt;= val2</t>
+  </si>
+  <si>
+    <t>//2 &gt;= 1 * num2</t>
+  </si>
+  <si>
+    <t>TEST_F(SerializeTest, change_f_type) {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXPECT_GE(5, MyApp::multiply(1,num2));</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    EXPECT_GE(6, MyApp::multiply(1,num2));</t>
+  </si>
+  <si>
+    <t>ディレクトリの構成</t>
+    <rPh sb="7" eb="9">
+      <t>コウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyAppTest.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MyApp.cpp</t>
+  </si>
+  <si>
+    <t>MyApp.cpp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CMakeLists.txt</t>
+  </si>
+  <si>
+    <t>add_subdirectory(googletest)</t>
+  </si>
+  <si>
+    <t>add_library(Test2 ../MyApp.cpp)</t>
+  </si>
+  <si>
+    <t>target_link_libraries(myapp-test Test2 gtest_main)</t>
+  </si>
+  <si>
+    <t>評価対象のコード</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ライブラリをリンクするファイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストフィクスチャのテストコード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■実装が必要なリソースは以下となる</t>
+    <rPh sb="1" eb="3">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1101,7 +1397,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1146,6 +1442,15 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1258,7 +1563,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1304,6 +1609,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1313,6 +1621,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF008000"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -1325,13 +1634,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>124</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1372,13 +1681,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>127</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>129</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2502,6 +2811,199 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="895350" y="1714500"/>
+          <a:ext cx="6305550" cy="1876425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="895350" y="3771900"/>
+          <a:ext cx="6696075" cy="4448175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="895350" y="8229600"/>
+          <a:ext cx="4514850" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="895350" y="10629900"/>
+          <a:ext cx="7886700" cy="7077075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2787,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:G133"/>
+  <dimension ref="B2:H143"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C127" sqref="C127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3046,7 +3548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="97" spans="3:4">
+    <row r="97" spans="3:8">
       <c r="C97" t="s">
         <v>64</v>
       </c>
@@ -3054,36 +3556,94 @@
         <v>59</v>
       </c>
     </row>
-    <row r="98" spans="3:4">
+    <row r="98" spans="3:8">
       <c r="D98" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="3:4">
+    <row r="99" spans="3:8">
       <c r="D99" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="100" spans="3:4">
+    <row r="100" spans="3:8">
       <c r="D100" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="3:4">
-      <c r="C103" t="s">
+    <row r="102" spans="3:8">
+      <c r="D102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8">
+      <c r="D103" t="s">
+        <v>166</v>
+      </c>
+      <c r="H103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8">
+      <c r="D104" t="s">
+        <v>168</v>
+      </c>
+      <c r="H104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8">
+      <c r="D105" t="s">
+        <v>170</v>
+      </c>
+      <c r="H105" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8">
+      <c r="D106" t="s">
+        <v>172</v>
+      </c>
+      <c r="H106" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8">
+      <c r="D107" t="s">
+        <v>173</v>
+      </c>
+      <c r="H107" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8">
+      <c r="D108" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8">
+      <c r="D109" t="s">
+        <v>175</v>
+      </c>
+      <c r="H109" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113" t="s">
         <v>65</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D113" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="117" spans="3:3">
-      <c r="C117" t="s">
+    <row r="127" spans="3:4">
+      <c r="C127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="1"/>
+    <row r="143" spans="2:2">
+      <c r="B143" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3103,7 +3663,7 @@
   <dimension ref="B2:E10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3175,7 +3735,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3241,7 +3801,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3334,7 +3894,7 @@
   <dimension ref="B2:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4260,4 +4820,870 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
   <drawing r:id="rId6"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:T176"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13">
+      <c r="B2" s="13" t="str">
+        <f ca="1">RIGHT(CELL("filename",A3),LEN(CELL("filename",B2))-FIND("]",CELL("filename",B2)))</f>
+        <v>テストフィクスチャ</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13">
+      <c r="C5" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13">
+      <c r="M7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="M8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="M10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="M11" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3">
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="3:20">
+      <c r="C106" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="3:20">
+      <c r="C108" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="I108" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="N108" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="109" spans="3:20">
+      <c r="C109" t="s">
+        <v>230</v>
+      </c>
+      <c r="I109" t="s">
+        <v>232</v>
+      </c>
+      <c r="N109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="3:20">
+      <c r="C110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="4"/>
+      <c r="I110" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="4"/>
+      <c r="N110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O110" s="3"/>
+      <c r="P110" s="3"/>
+      <c r="Q110" s="3"/>
+      <c r="R110" s="3"/>
+      <c r="S110" s="3"/>
+      <c r="T110" s="4"/>
+    </row>
+    <row r="111" spans="3:20">
+      <c r="C111" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="7"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="7"/>
+      <c r="N111" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O111" s="6"/>
+      <c r="P111" s="6"/>
+      <c r="Q111" s="6"/>
+      <c r="R111" s="6"/>
+      <c r="S111" s="6"/>
+      <c r="T111" s="7"/>
+    </row>
+    <row r="112" spans="3:20">
+      <c r="C112" s="5"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="7"/>
+      <c r="I112" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="7"/>
+      <c r="N112" s="5"/>
+      <c r="O112" s="6"/>
+      <c r="P112" s="6"/>
+      <c r="Q112" s="6"/>
+      <c r="R112" s="6"/>
+      <c r="S112" s="6"/>
+      <c r="T112" s="7"/>
+    </row>
+    <row r="113" spans="3:20">
+      <c r="C113" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D113" s="6"/>
+      <c r="E113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="7"/>
+      <c r="I113" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="7"/>
+      <c r="N113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="O113" s="6"/>
+      <c r="P113" s="6"/>
+      <c r="Q113" s="6"/>
+      <c r="R113" s="6"/>
+      <c r="S113" s="6"/>
+      <c r="T113" s="7"/>
+    </row>
+    <row r="114" spans="3:20">
+      <c r="C114" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="7"/>
+      <c r="I114" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J114" s="6"/>
+      <c r="K114" s="6"/>
+      <c r="L114" s="7"/>
+      <c r="N114" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O114" s="6"/>
+      <c r="P114" s="6"/>
+      <c r="Q114" s="6"/>
+      <c r="R114" s="6"/>
+      <c r="S114" s="6"/>
+      <c r="T114" s="7"/>
+    </row>
+    <row r="115" spans="3:20">
+      <c r="C115" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D115" s="6"/>
+      <c r="E115" s="6"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="7"/>
+      <c r="I115" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="12"/>
+      <c r="N115" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="O115" s="6"/>
+      <c r="P115" s="6"/>
+      <c r="Q115" s="6"/>
+      <c r="R115" s="6"/>
+      <c r="S115" s="6"/>
+      <c r="T115" s="7"/>
+    </row>
+    <row r="116" spans="3:20">
+      <c r="C116" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="6"/>
+      <c r="G116" s="7"/>
+      <c r="N116" s="5"/>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6"/>
+      <c r="Q116" s="6"/>
+      <c r="R116" s="6"/>
+      <c r="S116" s="6"/>
+      <c r="T116" s="7"/>
+    </row>
+    <row r="117" spans="3:20">
+      <c r="C117" s="5"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F117" s="6"/>
+      <c r="G117" s="7"/>
+      <c r="I117" t="s">
+        <v>231</v>
+      </c>
+      <c r="N117" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O117" s="6"/>
+      <c r="P117" s="6"/>
+      <c r="Q117" s="6"/>
+      <c r="R117" s="6"/>
+      <c r="S117" s="6"/>
+      <c r="T117" s="7"/>
+    </row>
+    <row r="118" spans="3:20">
+      <c r="C118" s="5"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F118" s="6"/>
+      <c r="G118" s="7"/>
+      <c r="I118" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="4"/>
+      <c r="N118" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="O118" s="6"/>
+      <c r="P118" s="6"/>
+      <c r="Q118" s="6"/>
+      <c r="R118" s="6"/>
+      <c r="S118" s="6"/>
+      <c r="T118" s="7"/>
+    </row>
+    <row r="119" spans="3:20">
+      <c r="C119" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D119" s="6"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="6"/>
+      <c r="G119" s="7"/>
+      <c r="I119" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J119" s="6"/>
+      <c r="K119" s="6"/>
+      <c r="L119" s="7"/>
+      <c r="N119" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O119" s="6"/>
+      <c r="P119" s="6"/>
+      <c r="Q119" s="6"/>
+      <c r="R119" s="6"/>
+      <c r="S119" s="6"/>
+      <c r="T119" s="7"/>
+    </row>
+    <row r="120" spans="3:20">
+      <c r="C120" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D120" s="6"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="6"/>
+      <c r="G120" s="7"/>
+      <c r="I120" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J120" s="6"/>
+      <c r="K120" s="6"/>
+      <c r="L120" s="7"/>
+      <c r="N120" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O120" s="6"/>
+      <c r="P120" s="6"/>
+      <c r="Q120" s="6"/>
+      <c r="R120" s="6"/>
+      <c r="S120" s="6"/>
+      <c r="T120" s="7"/>
+    </row>
+    <row r="121" spans="3:20">
+      <c r="C121" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6"/>
+      <c r="F121" s="6"/>
+      <c r="G121" s="7"/>
+      <c r="I121" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J121" s="6"/>
+      <c r="K121" s="6"/>
+      <c r="L121" s="7"/>
+      <c r="N121" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O121" s="6"/>
+      <c r="P121" s="6"/>
+      <c r="Q121" s="6"/>
+      <c r="R121" s="6"/>
+      <c r="S121" s="6"/>
+      <c r="T121" s="7"/>
+    </row>
+    <row r="122" spans="3:20">
+      <c r="C122" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="7"/>
+      <c r="I122" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="12"/>
+      <c r="N122" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="11"/>
+      <c r="T122" s="12"/>
+    </row>
+    <row r="123" spans="3:20">
+      <c r="C123" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="7"/>
+    </row>
+    <row r="124" spans="3:20">
+      <c r="C124" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="6"/>
+      <c r="G124" s="7"/>
+    </row>
+    <row r="125" spans="3:20">
+      <c r="C125" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D125" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E125" s="6"/>
+      <c r="F125" s="6"/>
+      <c r="G125" s="7"/>
+    </row>
+    <row r="126" spans="3:20">
+      <c r="C126" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="7"/>
+    </row>
+    <row r="127" spans="3:20">
+      <c r="C127" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D127" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" s="6"/>
+      <c r="F127" s="6"/>
+      <c r="G127" s="7"/>
+    </row>
+    <row r="128" spans="3:20">
+      <c r="C128" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="6"/>
+      <c r="G128" s="7"/>
+    </row>
+    <row r="129" spans="3:7">
+      <c r="C129" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6"/>
+      <c r="F129" s="6"/>
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130" spans="3:7">
+      <c r="C130" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="3:7">
+      <c r="C131" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="3:7">
+      <c r="C132" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="6"/>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="3:7">
+      <c r="C133" s="5"/>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6"/>
+      <c r="F133" s="6"/>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="3:7">
+      <c r="C134" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="7"/>
+    </row>
+    <row r="135" spans="3:7">
+      <c r="C135" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6"/>
+      <c r="F135" s="6"/>
+      <c r="G135" s="7"/>
+    </row>
+    <row r="136" spans="3:7">
+      <c r="C136" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="6"/>
+      <c r="G136" s="7"/>
+    </row>
+    <row r="137" spans="3:7">
+      <c r="C137" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D137" s="6"/>
+      <c r="E137" s="6"/>
+      <c r="F137" s="6"/>
+      <c r="G137" s="7"/>
+    </row>
+    <row r="138" spans="3:7">
+      <c r="C138" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="3:7">
+      <c r="C139" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D139" s="6"/>
+      <c r="E139" s="6"/>
+      <c r="F139" s="6"/>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="3:7">
+      <c r="C140" s="5"/>
+      <c r="D140" s="6"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="6"/>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="3:7">
+      <c r="C141" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="3:7">
+      <c r="C142" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="7"/>
+    </row>
+    <row r="143" spans="3:7">
+      <c r="C143" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D143" s="6"/>
+      <c r="E143" s="6"/>
+      <c r="F143" s="6"/>
+      <c r="G143" s="7"/>
+    </row>
+    <row r="144" spans="3:7">
+      <c r="C144" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D144" s="6"/>
+      <c r="E144" s="6"/>
+      <c r="F144" s="6"/>
+      <c r="G144" s="7"/>
+    </row>
+    <row r="145" spans="3:7">
+      <c r="C145" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D145" s="6"/>
+      <c r="E145" s="6"/>
+      <c r="F145" s="6"/>
+      <c r="G145" s="7"/>
+    </row>
+    <row r="146" spans="3:7">
+      <c r="C146" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147" spans="3:7">
+      <c r="C147" s="5"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+      <c r="G147" s="7"/>
+    </row>
+    <row r="148" spans="3:7">
+      <c r="C148" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+      <c r="G148" s="7"/>
+    </row>
+    <row r="149" spans="3:7">
+      <c r="C149" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+      <c r="G149" s="7"/>
+    </row>
+    <row r="150" spans="3:7">
+      <c r="C150" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+      <c r="G150" s="7"/>
+    </row>
+    <row r="151" spans="3:7">
+      <c r="C151" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+      <c r="G151" s="7"/>
+    </row>
+    <row r="152" spans="3:7">
+      <c r="C152" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+      <c r="G152" s="7"/>
+    </row>
+    <row r="153" spans="3:7">
+      <c r="C153" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+      <c r="G153" s="7"/>
+    </row>
+    <row r="154" spans="3:7">
+      <c r="C154" s="5"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+      <c r="G154" s="7"/>
+    </row>
+    <row r="155" spans="3:7">
+      <c r="C155" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="6"/>
+      <c r="F155" s="6"/>
+      <c r="G155" s="7"/>
+    </row>
+    <row r="156" spans="3:7">
+      <c r="C156" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="D156" s="6"/>
+      <c r="E156" s="6"/>
+      <c r="F156" s="6"/>
+      <c r="G156" s="7"/>
+    </row>
+    <row r="157" spans="3:7">
+      <c r="C157" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="6"/>
+      <c r="F157" s="6"/>
+      <c r="G157" s="7"/>
+    </row>
+    <row r="158" spans="3:7">
+      <c r="C158" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D158" s="6"/>
+      <c r="E158" s="6"/>
+      <c r="F158" s="6"/>
+      <c r="G158" s="7"/>
+    </row>
+    <row r="159" spans="3:7">
+      <c r="C159" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="D159" s="6"/>
+      <c r="E159" s="6"/>
+      <c r="F159" s="6"/>
+      <c r="G159" s="7"/>
+    </row>
+    <row r="160" spans="3:7">
+      <c r="C160" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="7"/>
+    </row>
+    <row r="161" spans="3:7">
+      <c r="C161" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D161" s="6"/>
+      <c r="E161" s="6"/>
+      <c r="F161" s="6"/>
+      <c r="G161" s="7"/>
+    </row>
+    <row r="162" spans="3:7">
+      <c r="C162" s="5"/>
+      <c r="D162" s="6"/>
+      <c r="E162" s="6"/>
+      <c r="F162" s="6"/>
+      <c r="G162" s="7"/>
+    </row>
+    <row r="163" spans="3:7">
+      <c r="C163" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D163" s="6"/>
+      <c r="E163" s="6"/>
+      <c r="F163" s="6"/>
+      <c r="G163" s="7"/>
+    </row>
+    <row r="164" spans="3:7">
+      <c r="C164" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D164" s="6"/>
+      <c r="E164" s="6"/>
+      <c r="F164" s="6"/>
+      <c r="G164" s="7"/>
+    </row>
+    <row r="165" spans="3:7">
+      <c r="C165" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D165" s="6"/>
+      <c r="E165" s="6"/>
+      <c r="F165" s="6"/>
+      <c r="G165" s="7"/>
+    </row>
+    <row r="166" spans="3:7">
+      <c r="C166" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D166" s="6"/>
+      <c r="E166" s="6"/>
+      <c r="F166" s="6"/>
+      <c r="G166" s="7"/>
+    </row>
+    <row r="167" spans="3:7">
+      <c r="C167" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="D167" s="6"/>
+      <c r="E167" s="6"/>
+      <c r="F167" s="6"/>
+      <c r="G167" s="7"/>
+    </row>
+    <row r="168" spans="3:7">
+      <c r="C168" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D168" s="6"/>
+      <c r="E168" s="6"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="7"/>
+    </row>
+    <row r="169" spans="3:7">
+      <c r="C169" s="5"/>
+      <c r="D169" s="6"/>
+      <c r="E169" s="6"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="7"/>
+    </row>
+    <row r="170" spans="3:7">
+      <c r="C170" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D170" s="6"/>
+      <c r="E170" s="6"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="7"/>
+    </row>
+    <row r="171" spans="3:7">
+      <c r="C171" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D171" s="6"/>
+      <c r="E171" s="6"/>
+      <c r="F171" s="6"/>
+      <c r="G171" s="7"/>
+    </row>
+    <row r="172" spans="3:7">
+      <c r="C172" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="D172" s="6"/>
+      <c r="E172" s="6"/>
+      <c r="F172" s="6"/>
+      <c r="G172" s="7"/>
+    </row>
+    <row r="173" spans="3:7">
+      <c r="C173" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D173" s="6"/>
+      <c r="E173" s="6"/>
+      <c r="F173" s="6"/>
+      <c r="G173" s="7"/>
+    </row>
+    <row r="174" spans="3:7">
+      <c r="C174" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D174" s="6"/>
+      <c r="E174" s="6"/>
+      <c r="F174" s="6"/>
+      <c r="G174" s="7"/>
+    </row>
+    <row r="175" spans="3:7">
+      <c r="C175" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D175" s="6"/>
+      <c r="E175" s="6"/>
+      <c r="F175" s="6"/>
+      <c r="G175" s="7"/>
+    </row>
+    <row r="176" spans="3:7">
+      <c r="C176" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D176" s="11"/>
+      <c r="E176" s="11"/>
+      <c r="F176" s="11"/>
+      <c r="G176" s="12"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>